--- a/files/Doc/Missing_407X_shift_AMD.xlsx
+++ b/files/Doc/Missing_407X_shift_AMD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280" count="280">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
   <x:si>
     <x:t>employee_number</x:t>
   </x:si>
